--- a/Excel/SYMBOLタウンリスト.xlsx
+++ b/Excel/SYMBOLタウンリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B62537-C0C2-46B7-924A-FCAB74E370DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0423327-DB5C-4682-989E-43240930E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3140,7 +3140,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ギリギリ節分なげ</t>
+      <t>節分が終わっても</t>
     </r>
     <r>
       <rPr>
@@ -3159,10 +3159,43 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>！</t>
+      <t>は投げる！ （っ</t>
     </r>
-    <rPh sb="4" eb="6">
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'-')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>╮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =͟͟͞͞1xym</t>
+    </r>
+    <rPh sb="0" eb="2">
       <t>セツブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3174,7 +3207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3239,6 +3272,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3283,14 +3322,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3512,7 +3551,7 @@
   <dimension ref="A1:H1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3530,10 +3569,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3541,10 +3580,10 @@
       <c r="F1" s="2">
         <v>44960.064481898153</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -3566,7 +3605,7 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3588,7 +3627,7 @@
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3610,7 +3649,7 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3632,7 +3671,7 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3654,7 +3693,7 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3676,7 +3715,7 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3698,7 +3737,7 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3720,7 +3759,7 @@
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3742,7 +3781,7 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3764,7 +3803,7 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3786,7 +3825,7 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3808,7 +3847,7 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3830,7 +3869,7 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3852,7 +3891,7 @@
       <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3874,7 +3913,7 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3896,7 +3935,7 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3918,7 +3957,7 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3940,7 +3979,7 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3962,7 +4001,7 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -3984,7 +4023,7 @@
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4006,7 +4045,7 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4028,7 +4067,7 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4050,7 +4089,7 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4072,7 +4111,7 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4094,7 +4133,7 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4116,7 +4155,7 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4138,7 +4177,7 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4160,7 +4199,7 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4182,7 +4221,7 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4204,7 +4243,7 @@
       <c r="G31" s="3">
         <v>1</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4226,7 +4265,7 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4248,7 +4287,7 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4270,7 +4309,7 @@
       <c r="G34" s="3">
         <v>1</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4292,7 +4331,7 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4314,7 +4353,7 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4336,7 +4375,7 @@
       <c r="G37" s="3">
         <v>1</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4358,7 +4397,7 @@
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4380,7 +4419,7 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4402,7 +4441,7 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4424,7 +4463,7 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4446,7 +4485,7 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4468,7 +4507,7 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4490,7 +4529,7 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4512,7 +4551,7 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4534,7 +4573,7 @@
       <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4556,7 +4595,7 @@
       <c r="G47" s="3">
         <v>1</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4578,7 +4617,7 @@
       <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4600,7 +4639,7 @@
       <c r="G49" s="3">
         <v>1</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4622,7 +4661,7 @@
       <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="8" t="s">
+      <c r="H50" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4644,7 +4683,7 @@
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4666,7 +4705,7 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4686,7 +4725,7 @@
       <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="H53" s="8" t="s">
+      <c r="H53" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4708,7 +4747,7 @@
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4728,7 +4767,7 @@
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="8" t="s">
+      <c r="H55" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4750,7 +4789,7 @@
       <c r="G56" s="3">
         <v>1</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4772,7 +4811,7 @@
       <c r="G57" s="3">
         <v>1</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4794,7 +4833,7 @@
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4816,7 +4855,7 @@
       <c r="G59" s="3">
         <v>1</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4836,7 +4875,7 @@
       <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" s="8" t="s">
+      <c r="H60" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4858,7 +4897,7 @@
       <c r="G61" s="3">
         <v>1</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4880,7 +4919,7 @@
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4902,7 +4941,7 @@
       <c r="G63" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H63" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4924,7 +4963,7 @@
       <c r="G64" s="3">
         <v>1</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4946,7 +4985,7 @@
       <c r="G65" s="3">
         <v>1</v>
       </c>
-      <c r="H65" s="8" t="s">
+      <c r="H65" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4968,7 +5007,7 @@
       <c r="G66" s="3">
         <v>1</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -4990,7 +5029,7 @@
       <c r="G67" s="3">
         <v>1</v>
       </c>
-      <c r="H67" s="8" t="s">
+      <c r="H67" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5012,7 +5051,7 @@
       <c r="G68" s="3">
         <v>1</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5034,7 +5073,7 @@
       <c r="G69" s="3">
         <v>1</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5056,7 +5095,7 @@
       <c r="G70" s="3">
         <v>1</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="H70" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5078,7 +5117,7 @@
       <c r="G71" s="3">
         <v>1</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="H71" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5100,7 +5139,7 @@
       <c r="G72" s="3">
         <v>1</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="H72" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5122,7 +5161,7 @@
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="H73" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5144,7 +5183,7 @@
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5166,7 +5205,7 @@
       <c r="G75" s="3">
         <v>1</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5188,7 +5227,7 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5210,7 +5249,7 @@
       <c r="G77" s="3">
         <v>1</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="H77" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5232,7 +5271,7 @@
       <c r="G78" s="3">
         <v>1</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="H78" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5254,7 +5293,7 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="H79" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5274,7 +5313,7 @@
       <c r="G80" s="3">
         <v>1</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="H80" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5296,7 +5335,7 @@
       <c r="G81" s="3">
         <v>1</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="H81" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5318,7 +5357,7 @@
       <c r="G82" s="3">
         <v>1</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="H82" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5340,7 +5379,7 @@
       <c r="G83" s="3">
         <v>1</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="H83" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5362,7 +5401,7 @@
       <c r="G84" s="3">
         <v>1</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5384,7 +5423,7 @@
       <c r="G85" s="3">
         <v>1</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5406,7 +5445,7 @@
       <c r="G86" s="3">
         <v>1</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="H86" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5428,7 +5467,7 @@
       <c r="G87" s="3">
         <v>1</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5448,7 +5487,7 @@
       <c r="G88" s="3">
         <v>1</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H88" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5470,7 +5509,7 @@
       <c r="G89" s="3">
         <v>1</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="H89" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5492,7 +5531,7 @@
       <c r="G90" s="3">
         <v>1</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="H90" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5514,7 +5553,7 @@
       <c r="G91" s="3">
         <v>1</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="H91" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5536,7 +5575,7 @@
       <c r="G92" s="3">
         <v>1</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="H92" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5558,7 +5597,7 @@
       <c r="G93" s="3">
         <v>1</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="H93" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5580,7 +5619,7 @@
       <c r="G94" s="3">
         <v>1</v>
       </c>
-      <c r="H94" s="8" t="s">
+      <c r="H94" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5602,7 +5641,7 @@
       <c r="G95" s="3">
         <v>1</v>
       </c>
-      <c r="H95" s="8" t="s">
+      <c r="H95" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5624,7 +5663,7 @@
       <c r="G96" s="3">
         <v>1</v>
       </c>
-      <c r="H96" s="8" t="s">
+      <c r="H96" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5646,7 +5685,7 @@
       <c r="G97" s="3">
         <v>1</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5668,7 +5707,7 @@
       <c r="G98" s="3">
         <v>1</v>
       </c>
-      <c r="H98" s="8" t="s">
+      <c r="H98" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5690,7 +5729,7 @@
       <c r="G99" s="3">
         <v>1</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H99" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5712,7 +5751,7 @@
       <c r="G100" s="3">
         <v>1</v>
       </c>
-      <c r="H100" s="8" t="s">
+      <c r="H100" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5734,7 +5773,7 @@
       <c r="G101" s="3">
         <v>1</v>
       </c>
-      <c r="H101" s="8" t="s">
+      <c r="H101" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5756,7 +5795,7 @@
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5778,7 +5817,7 @@
       <c r="G103" s="3">
         <v>1</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5800,7 +5839,7 @@
       <c r="G104" s="3">
         <v>1</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H104" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5822,7 +5861,7 @@
       <c r="G105" s="3">
         <v>1</v>
       </c>
-      <c r="H105" s="8" t="s">
+      <c r="H105" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5844,7 +5883,7 @@
       <c r="G106" s="3">
         <v>1</v>
       </c>
-      <c r="H106" s="8" t="s">
+      <c r="H106" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5866,7 +5905,7 @@
       <c r="G107" s="3">
         <v>1</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5888,7 +5927,7 @@
       <c r="G108" s="3">
         <v>1</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5910,7 +5949,7 @@
       <c r="G109" s="3">
         <v>1</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5932,7 +5971,7 @@
       <c r="G110" s="3">
         <v>1</v>
       </c>
-      <c r="H110" s="8" t="s">
+      <c r="H110" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5954,7 +5993,7 @@
       <c r="G111" s="3">
         <v>1</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5976,7 +6015,7 @@
       <c r="G112" s="3">
         <v>1</v>
       </c>
-      <c r="H112" s="8" t="s">
+      <c r="H112" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -5998,7 +6037,7 @@
       <c r="G113" s="3">
         <v>1</v>
       </c>
-      <c r="H113" s="8" t="s">
+      <c r="H113" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6020,7 +6059,7 @@
       <c r="G114" s="3">
         <v>1</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="H114" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6042,7 +6081,7 @@
       <c r="G115" s="3">
         <v>1</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6064,7 +6103,7 @@
       <c r="G116" s="3">
         <v>1</v>
       </c>
-      <c r="H116" s="8" t="s">
+      <c r="H116" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6086,7 +6125,7 @@
       <c r="G117" s="3">
         <v>1</v>
       </c>
-      <c r="H117" s="8" t="s">
+      <c r="H117" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6108,7 +6147,7 @@
       <c r="G118" s="3">
         <v>1</v>
       </c>
-      <c r="H118" s="8" t="s">
+      <c r="H118" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6130,7 +6169,7 @@
       <c r="G119" s="3">
         <v>1</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6152,7 +6191,7 @@
       <c r="G120" s="3">
         <v>1</v>
       </c>
-      <c r="H120" s="8" t="s">
+      <c r="H120" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6174,7 +6213,7 @@
       <c r="G121" s="3">
         <v>1</v>
       </c>
-      <c r="H121" s="8" t="s">
+      <c r="H121" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6196,7 +6235,7 @@
       <c r="G122" s="3">
         <v>1</v>
       </c>
-      <c r="H122" s="8" t="s">
+      <c r="H122" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6218,7 +6257,7 @@
       <c r="G123" s="3">
         <v>1</v>
       </c>
-      <c r="H123" s="8" t="s">
+      <c r="H123" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6240,7 +6279,7 @@
       <c r="G124" s="3">
         <v>1</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6262,7 +6301,7 @@
       <c r="G125" s="3">
         <v>1</v>
       </c>
-      <c r="H125" s="8" t="s">
+      <c r="H125" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6284,7 +6323,7 @@
       <c r="G126" s="3">
         <v>1</v>
       </c>
-      <c r="H126" s="8" t="s">
+      <c r="H126" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6306,7 +6345,7 @@
       <c r="G127" s="3">
         <v>1</v>
       </c>
-      <c r="H127" s="8" t="s">
+      <c r="H127" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6328,7 +6367,7 @@
       <c r="G128" s="3">
         <v>1</v>
       </c>
-      <c r="H128" s="8" t="s">
+      <c r="H128" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6350,7 +6389,7 @@
       <c r="G129" s="3">
         <v>1</v>
       </c>
-      <c r="H129" s="8" t="s">
+      <c r="H129" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6372,7 +6411,7 @@
       <c r="G130" s="3">
         <v>1</v>
       </c>
-      <c r="H130" s="8" t="s">
+      <c r="H130" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6394,7 +6433,7 @@
       <c r="G131" s="3">
         <v>1</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6416,7 +6455,7 @@
       <c r="G132" s="3">
         <v>1</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="H132" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6438,7 +6477,7 @@
       <c r="G133" s="3">
         <v>1</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6460,7 +6499,7 @@
       <c r="G134" s="3">
         <v>1</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="H134" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6482,7 +6521,7 @@
       <c r="G135" s="3">
         <v>1</v>
       </c>
-      <c r="H135" s="8" t="s">
+      <c r="H135" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6504,7 +6543,7 @@
       <c r="G136" s="3">
         <v>1</v>
       </c>
-      <c r="H136" s="8" t="s">
+      <c r="H136" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6526,7 +6565,7 @@
       <c r="G137" s="3">
         <v>1</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6548,7 +6587,7 @@
       <c r="G138" s="3">
         <v>1</v>
       </c>
-      <c r="H138" s="8" t="s">
+      <c r="H138" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6570,7 +6609,7 @@
       <c r="G139" s="3">
         <v>1</v>
       </c>
-      <c r="H139" s="8" t="s">
+      <c r="H139" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6592,7 +6631,7 @@
       <c r="G140" s="3">
         <v>1</v>
       </c>
-      <c r="H140" s="8" t="s">
+      <c r="H140" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6614,7 +6653,7 @@
       <c r="G141" s="3">
         <v>1</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6636,7 +6675,7 @@
       <c r="G142" s="3">
         <v>1</v>
       </c>
-      <c r="H142" s="8" t="s">
+      <c r="H142" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6658,7 +6697,7 @@
       <c r="G143" s="3">
         <v>1</v>
       </c>
-      <c r="H143" s="8" t="s">
+      <c r="H143" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6680,7 +6719,7 @@
       <c r="G144" s="3">
         <v>1</v>
       </c>
-      <c r="H144" s="8" t="s">
+      <c r="H144" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6702,7 +6741,7 @@
       <c r="G145" s="3">
         <v>1</v>
       </c>
-      <c r="H145" s="8" t="s">
+      <c r="H145" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6724,7 +6763,7 @@
       <c r="G146" s="3">
         <v>1</v>
       </c>
-      <c r="H146" s="8" t="s">
+      <c r="H146" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6746,7 +6785,7 @@
       <c r="G147" s="3">
         <v>1</v>
       </c>
-      <c r="H147" s="8" t="s">
+      <c r="H147" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6768,7 +6807,7 @@
       <c r="G148" s="3">
         <v>1</v>
       </c>
-      <c r="H148" s="8" t="s">
+      <c r="H148" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6790,7 +6829,7 @@
       <c r="G149" s="3">
         <v>1</v>
       </c>
-      <c r="H149" s="8" t="s">
+      <c r="H149" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6812,7 +6851,7 @@
       <c r="G150" s="3">
         <v>1</v>
       </c>
-      <c r="H150" s="8" t="s">
+      <c r="H150" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6832,7 +6871,7 @@
       <c r="G151" s="3">
         <v>1</v>
       </c>
-      <c r="H151" s="8" t="s">
+      <c r="H151" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6854,7 +6893,7 @@
       <c r="G152" s="3">
         <v>1</v>
       </c>
-      <c r="H152" s="8" t="s">
+      <c r="H152" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6876,7 +6915,7 @@
       <c r="G153" s="3">
         <v>1</v>
       </c>
-      <c r="H153" s="8" t="s">
+      <c r="H153" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6896,7 +6935,7 @@
       <c r="G154" s="3">
         <v>1</v>
       </c>
-      <c r="H154" s="8" t="s">
+      <c r="H154" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6918,7 +6957,7 @@
       <c r="G155" s="3">
         <v>1</v>
       </c>
-      <c r="H155" s="8" t="s">
+      <c r="H155" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6940,7 +6979,7 @@
       <c r="G156" s="3">
         <v>1</v>
       </c>
-      <c r="H156" s="8" t="s">
+      <c r="H156" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6962,7 +7001,7 @@
       <c r="G157" s="3">
         <v>1</v>
       </c>
-      <c r="H157" s="8" t="s">
+      <c r="H157" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -6984,7 +7023,7 @@
       <c r="G158" s="3">
         <v>1</v>
       </c>
-      <c r="H158" s="8" t="s">
+      <c r="H158" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7006,7 +7045,7 @@
       <c r="G159" s="3">
         <v>1</v>
       </c>
-      <c r="H159" s="8" t="s">
+      <c r="H159" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7026,7 +7065,7 @@
       <c r="G160" s="3">
         <v>1</v>
       </c>
-      <c r="H160" s="8" t="s">
+      <c r="H160" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7048,7 +7087,7 @@
       <c r="G161" s="3">
         <v>1</v>
       </c>
-      <c r="H161" s="8" t="s">
+      <c r="H161" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7070,7 +7109,7 @@
       <c r="G162" s="3">
         <v>1</v>
       </c>
-      <c r="H162" s="8" t="s">
+      <c r="H162" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7092,7 +7131,7 @@
       <c r="G163" s="3">
         <v>1</v>
       </c>
-      <c r="H163" s="8" t="s">
+      <c r="H163" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7114,7 +7153,7 @@
       <c r="G164" s="3">
         <v>1</v>
       </c>
-      <c r="H164" s="8" t="s">
+      <c r="H164" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7136,7 +7175,7 @@
       <c r="G165" s="3">
         <v>1</v>
       </c>
-      <c r="H165" s="8" t="s">
+      <c r="H165" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7158,7 +7197,7 @@
       <c r="G166" s="3">
         <v>1</v>
       </c>
-      <c r="H166" s="8" t="s">
+      <c r="H166" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7180,7 +7219,7 @@
       <c r="G167" s="3">
         <v>1</v>
       </c>
-      <c r="H167" s="8" t="s">
+      <c r="H167" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7202,7 +7241,7 @@
       <c r="G168" s="3">
         <v>1</v>
       </c>
-      <c r="H168" s="8" t="s">
+      <c r="H168" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7224,7 +7263,7 @@
       <c r="G169" s="3">
         <v>1</v>
       </c>
-      <c r="H169" s="8" t="s">
+      <c r="H169" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7246,7 +7285,7 @@
       <c r="G170" s="3">
         <v>1</v>
       </c>
-      <c r="H170" s="8" t="s">
+      <c r="H170" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7268,7 +7307,7 @@
       <c r="G171" s="3">
         <v>1</v>
       </c>
-      <c r="H171" s="8" t="s">
+      <c r="H171" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7290,7 +7329,7 @@
       <c r="G172" s="3">
         <v>1</v>
       </c>
-      <c r="H172" s="8" t="s">
+      <c r="H172" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7312,7 +7351,7 @@
       <c r="G173" s="3">
         <v>1</v>
       </c>
-      <c r="H173" s="8" t="s">
+      <c r="H173" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7334,7 +7373,7 @@
       <c r="G174" s="3">
         <v>1</v>
       </c>
-      <c r="H174" s="8" t="s">
+      <c r="H174" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7354,7 +7393,7 @@
       <c r="G175" s="3">
         <v>1</v>
       </c>
-      <c r="H175" s="8" t="s">
+      <c r="H175" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7376,7 +7415,7 @@
       <c r="G176" s="3">
         <v>1</v>
       </c>
-      <c r="H176" s="8" t="s">
+      <c r="H176" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7398,7 +7437,7 @@
       <c r="G177" s="3">
         <v>1</v>
       </c>
-      <c r="H177" s="8" t="s">
+      <c r="H177" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7420,7 +7459,7 @@
       <c r="G178" s="3">
         <v>1</v>
       </c>
-      <c r="H178" s="8" t="s">
+      <c r="H178" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7442,7 +7481,7 @@
       <c r="G179" s="3">
         <v>1</v>
       </c>
-      <c r="H179" s="8" t="s">
+      <c r="H179" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7464,7 +7503,7 @@
       <c r="G180" s="3">
         <v>1</v>
       </c>
-      <c r="H180" s="8" t="s">
+      <c r="H180" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7486,7 +7525,7 @@
       <c r="G181" s="3">
         <v>1</v>
       </c>
-      <c r="H181" s="8" t="s">
+      <c r="H181" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7508,7 +7547,7 @@
       <c r="G182" s="3">
         <v>1</v>
       </c>
-      <c r="H182" s="8" t="s">
+      <c r="H182" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7530,7 +7569,7 @@
       <c r="G183" s="3">
         <v>1</v>
       </c>
-      <c r="H183" s="8" t="s">
+      <c r="H183" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7550,7 +7589,7 @@
       <c r="G184" s="3">
         <v>1</v>
       </c>
-      <c r="H184" s="8" t="s">
+      <c r="H184" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7572,7 +7611,7 @@
       <c r="G185" s="3">
         <v>1</v>
       </c>
-      <c r="H185" s="8" t="s">
+      <c r="H185" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7594,7 +7633,7 @@
       <c r="G186" s="3">
         <v>1</v>
       </c>
-      <c r="H186" s="8" t="s">
+      <c r="H186" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7616,7 +7655,7 @@
       <c r="G187" s="3">
         <v>1</v>
       </c>
-      <c r="H187" s="8" t="s">
+      <c r="H187" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7638,7 +7677,7 @@
       <c r="G188" s="3">
         <v>1</v>
       </c>
-      <c r="H188" s="8" t="s">
+      <c r="H188" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7660,7 +7699,7 @@
       <c r="G189" s="3">
         <v>1</v>
       </c>
-      <c r="H189" s="8" t="s">
+      <c r="H189" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7682,7 +7721,7 @@
       <c r="G190" s="3">
         <v>1</v>
       </c>
-      <c r="H190" s="8" t="s">
+      <c r="H190" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7704,7 +7743,7 @@
       <c r="G191" s="3">
         <v>1</v>
       </c>
-      <c r="H191" s="8" t="s">
+      <c r="H191" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7726,7 +7765,7 @@
       <c r="G192" s="3">
         <v>1</v>
       </c>
-      <c r="H192" s="8" t="s">
+      <c r="H192" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7748,7 +7787,7 @@
       <c r="G193" s="3">
         <v>1</v>
       </c>
-      <c r="H193" s="8" t="s">
+      <c r="H193" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7770,7 +7809,7 @@
       <c r="G194" s="3">
         <v>1</v>
       </c>
-      <c r="H194" s="8" t="s">
+      <c r="H194" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7792,7 +7831,7 @@
       <c r="G195" s="3">
         <v>1</v>
       </c>
-      <c r="H195" s="8" t="s">
+      <c r="H195" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7814,7 +7853,7 @@
       <c r="G196" s="3">
         <v>1</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="H196" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7836,7 +7875,7 @@
       <c r="G197" s="3">
         <v>1</v>
       </c>
-      <c r="H197" s="8" t="s">
+      <c r="H197" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7858,7 +7897,7 @@
       <c r="G198" s="3">
         <v>1</v>
       </c>
-      <c r="H198" s="8" t="s">
+      <c r="H198" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7880,7 +7919,7 @@
       <c r="G199" s="3">
         <v>1</v>
       </c>
-      <c r="H199" s="8" t="s">
+      <c r="H199" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7902,7 +7941,7 @@
       <c r="G200" s="3">
         <v>1</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="H200" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7922,7 +7961,7 @@
       <c r="G201" s="3">
         <v>1</v>
       </c>
-      <c r="H201" s="8" t="s">
+      <c r="H201" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7944,7 +7983,7 @@
       <c r="G202" s="3">
         <v>1</v>
       </c>
-      <c r="H202" s="8" t="s">
+      <c r="H202" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7966,7 +8005,7 @@
       <c r="G203" s="3">
         <v>1</v>
       </c>
-      <c r="H203" s="8" t="s">
+      <c r="H203" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -7986,7 +8025,7 @@
       <c r="G204" s="3">
         <v>1</v>
       </c>
-      <c r="H204" s="8" t="s">
+      <c r="H204" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8008,7 +8047,7 @@
       <c r="G205" s="3">
         <v>1</v>
       </c>
-      <c r="H205" s="8" t="s">
+      <c r="H205" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8030,7 +8069,7 @@
       <c r="G206" s="3">
         <v>1</v>
       </c>
-      <c r="H206" s="8" t="s">
+      <c r="H206" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8052,7 +8091,7 @@
       <c r="G207" s="3">
         <v>1</v>
       </c>
-      <c r="H207" s="8" t="s">
+      <c r="H207" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8074,7 +8113,7 @@
       <c r="G208" s="3">
         <v>1</v>
       </c>
-      <c r="H208" s="8" t="s">
+      <c r="H208" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8096,7 +8135,7 @@
       <c r="G209" s="3">
         <v>1</v>
       </c>
-      <c r="H209" s="8" t="s">
+      <c r="H209" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8118,7 +8157,7 @@
       <c r="G210" s="3">
         <v>1</v>
       </c>
-      <c r="H210" s="8" t="s">
+      <c r="H210" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8140,7 +8179,7 @@
       <c r="G211" s="3">
         <v>1</v>
       </c>
-      <c r="H211" s="8" t="s">
+      <c r="H211" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8160,7 +8199,7 @@
       <c r="G212" s="3">
         <v>1</v>
       </c>
-      <c r="H212" s="8" t="s">
+      <c r="H212" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8182,7 +8221,7 @@
       <c r="G213" s="3">
         <v>1</v>
       </c>
-      <c r="H213" s="8" t="s">
+      <c r="H213" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8204,7 +8243,7 @@
       <c r="G214" s="3">
         <v>1</v>
       </c>
-      <c r="H214" s="8" t="s">
+      <c r="H214" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8226,7 +8265,7 @@
       <c r="G215" s="3">
         <v>1</v>
       </c>
-      <c r="H215" s="8" t="s">
+      <c r="H215" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8248,7 +8287,7 @@
       <c r="G216" s="3">
         <v>1</v>
       </c>
-      <c r="H216" s="8" t="s">
+      <c r="H216" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8270,7 +8309,7 @@
       <c r="G217" s="3">
         <v>1</v>
       </c>
-      <c r="H217" s="8" t="s">
+      <c r="H217" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8292,7 +8331,7 @@
       <c r="G218" s="3">
         <v>1</v>
       </c>
-      <c r="H218" s="8" t="s">
+      <c r="H218" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8314,7 +8353,7 @@
       <c r="G219" s="3">
         <v>1</v>
       </c>
-      <c r="H219" s="8" t="s">
+      <c r="H219" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8336,7 +8375,7 @@
       <c r="G220" s="3">
         <v>1</v>
       </c>
-      <c r="H220" s="8" t="s">
+      <c r="H220" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8358,7 +8397,7 @@
       <c r="G221" s="3">
         <v>1</v>
       </c>
-      <c r="H221" s="8" t="s">
+      <c r="H221" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8380,7 +8419,7 @@
       <c r="G222" s="3">
         <v>1</v>
       </c>
-      <c r="H222" s="8" t="s">
+      <c r="H222" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8402,7 +8441,7 @@
       <c r="G223" s="3">
         <v>1</v>
       </c>
-      <c r="H223" s="8" t="s">
+      <c r="H223" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8424,7 +8463,7 @@
       <c r="G224" s="3">
         <v>1</v>
       </c>
-      <c r="H224" s="8" t="s">
+      <c r="H224" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8446,7 +8485,7 @@
       <c r="G225" s="3">
         <v>1</v>
       </c>
-      <c r="H225" s="8" t="s">
+      <c r="H225" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8468,7 +8507,7 @@
       <c r="G226" s="3">
         <v>1</v>
       </c>
-      <c r="H226" s="8" t="s">
+      <c r="H226" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8490,7 +8529,7 @@
       <c r="G227" s="3">
         <v>1</v>
       </c>
-      <c r="H227" s="8" t="s">
+      <c r="H227" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8512,7 +8551,7 @@
       <c r="G228" s="3">
         <v>1</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="H228" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8534,7 +8573,7 @@
       <c r="G229" s="3">
         <v>1</v>
       </c>
-      <c r="H229" s="8" t="s">
+      <c r="H229" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8556,7 +8595,7 @@
       <c r="G230" s="3">
         <v>1</v>
       </c>
-      <c r="H230" s="8" t="s">
+      <c r="H230" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8578,7 +8617,7 @@
       <c r="G231" s="3">
         <v>1</v>
       </c>
-      <c r="H231" s="8" t="s">
+      <c r="H231" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8600,7 +8639,7 @@
       <c r="G232" s="3">
         <v>1</v>
       </c>
-      <c r="H232" s="8" t="s">
+      <c r="H232" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8622,7 +8661,7 @@
       <c r="G233" s="3">
         <v>1</v>
       </c>
-      <c r="H233" s="8" t="s">
+      <c r="H233" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8644,7 +8683,7 @@
       <c r="G234" s="3">
         <v>1</v>
       </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8666,7 +8705,7 @@
       <c r="G235" s="3">
         <v>1</v>
       </c>
-      <c r="H235" s="8" t="s">
+      <c r="H235" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8688,7 +8727,7 @@
       <c r="G236" s="3">
         <v>1</v>
       </c>
-      <c r="H236" s="8" t="s">
+      <c r="H236" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8710,7 +8749,7 @@
       <c r="G237" s="3">
         <v>1</v>
       </c>
-      <c r="H237" s="8" t="s">
+      <c r="H237" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8732,7 +8771,7 @@
       <c r="G238" s="3">
         <v>1</v>
       </c>
-      <c r="H238" s="8" t="s">
+      <c r="H238" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8754,7 +8793,7 @@
       <c r="G239" s="3">
         <v>1</v>
       </c>
-      <c r="H239" s="8" t="s">
+      <c r="H239" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8776,7 +8815,7 @@
       <c r="G240" s="3">
         <v>1</v>
       </c>
-      <c r="H240" s="8" t="s">
+      <c r="H240" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8798,7 +8837,7 @@
       <c r="G241" s="3">
         <v>1</v>
       </c>
-      <c r="H241" s="8" t="s">
+      <c r="H241" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8820,7 +8859,7 @@
       <c r="G242" s="3">
         <v>1</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8842,7 +8881,7 @@
       <c r="G243" s="3">
         <v>1</v>
       </c>
-      <c r="H243" s="8" t="s">
+      <c r="H243" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8862,7 +8901,7 @@
       <c r="G244" s="3">
         <v>1</v>
       </c>
-      <c r="H244" s="8" t="s">
+      <c r="H244" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8884,7 +8923,7 @@
       <c r="G245" s="3">
         <v>1</v>
       </c>
-      <c r="H245" s="8" t="s">
+      <c r="H245" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8906,7 +8945,7 @@
       <c r="G246" s="3">
         <v>1</v>
       </c>
-      <c r="H246" s="8" t="s">
+      <c r="H246" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8928,7 +8967,7 @@
       <c r="G247" s="3">
         <v>1</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8950,7 +8989,7 @@
       <c r="G248" s="3">
         <v>1</v>
       </c>
-      <c r="H248" s="8" t="s">
+      <c r="H248" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8970,7 +9009,7 @@
       <c r="G249" s="3">
         <v>1</v>
       </c>
-      <c r="H249" s="8" t="s">
+      <c r="H249" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8992,7 +9031,7 @@
       <c r="G250" s="3">
         <v>1</v>
       </c>
-      <c r="H250" s="8" t="s">
+      <c r="H250" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9014,7 +9053,7 @@
       <c r="G251" s="3">
         <v>1</v>
       </c>
-      <c r="H251" s="8" t="s">
+      <c r="H251" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9034,7 +9073,7 @@
       <c r="G252" s="3">
         <v>1</v>
       </c>
-      <c r="H252" s="8" t="s">
+      <c r="H252" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9056,7 +9095,7 @@
       <c r="G253" s="3">
         <v>1</v>
       </c>
-      <c r="H253" s="8" t="s">
+      <c r="H253" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9078,7 +9117,7 @@
       <c r="G254" s="3">
         <v>1</v>
       </c>
-      <c r="H254" s="8" t="s">
+      <c r="H254" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9100,7 +9139,7 @@
       <c r="G255" s="3">
         <v>1</v>
       </c>
-      <c r="H255" s="8" t="s">
+      <c r="H255" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9122,7 +9161,7 @@
       <c r="G256" s="3">
         <v>1</v>
       </c>
-      <c r="H256" s="8" t="s">
+      <c r="H256" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9144,7 +9183,7 @@
       <c r="G257" s="3">
         <v>1</v>
       </c>
-      <c r="H257" s="8" t="s">
+      <c r="H257" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9166,7 +9205,7 @@
       <c r="G258" s="3">
         <v>1</v>
       </c>
-      <c r="H258" s="8" t="s">
+      <c r="H258" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9188,7 +9227,7 @@
       <c r="G259" s="3">
         <v>1</v>
       </c>
-      <c r="H259" s="8" t="s">
+      <c r="H259" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9210,7 +9249,7 @@
       <c r="G260" s="3">
         <v>1</v>
       </c>
-      <c r="H260" s="8" t="s">
+      <c r="H260" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9232,7 +9271,7 @@
       <c r="G261" s="3">
         <v>1</v>
       </c>
-      <c r="H261" s="8" t="s">
+      <c r="H261" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9254,7 +9293,7 @@
       <c r="G262" s="3">
         <v>1</v>
       </c>
-      <c r="H262" s="8" t="s">
+      <c r="H262" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -9276,7 +9315,7 @@
       <c r="G263" s="3">
         <v>1</v>
       </c>
-      <c r="H263" s="8" t="s">
+      <c r="H263" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
